--- a/output/fit_clients/fit_round_429.xlsx
+++ b/output/fit_clients/fit_round_429.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1671656483.344671</v>
+        <v>2332849486.621479</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09818776066241493</v>
+        <v>0.0950765484454775</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03790894096631753</v>
+        <v>0.02985095407683755</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>835828193.2182637</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2215577269.332142</v>
+        <v>2276516551.140985</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1175066475761261</v>
+        <v>0.1271687288827896</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0344137812163329</v>
+        <v>0.04641085893249736</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1107788708.134597</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4880539821.009234</v>
+        <v>4707263320.556748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1219720497483166</v>
+        <v>0.1311313850770314</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0248743047501702</v>
+        <v>0.0381988299058638</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>155</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2440269987.081899</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4100778653.790999</v>
+        <v>3005374823.699756</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09134035125687906</v>
+        <v>0.08777305261258173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03343339334363649</v>
+        <v>0.03418988144606198</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>158</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2050389323.96056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2091119659.793207</v>
+        <v>2855742754.062635</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09485452853440858</v>
+        <v>0.1379674266084808</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03525707176599743</v>
+        <v>0.05612394579755203</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1045559849.648322</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2402964543.753292</v>
+        <v>2681473588.608445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09310754053121376</v>
+        <v>0.08358795856884377</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04879432418529767</v>
+        <v>0.03545014661794615</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1201482294.267093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3029959084.28966</v>
+        <v>3333049293.193196</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1845936998827276</v>
+        <v>0.1634587503626375</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0266124109729673</v>
+        <v>0.02855389736962455</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1514979602.738535</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1505902920.563828</v>
+        <v>2094556994.246018</v>
       </c>
       <c r="F9" t="n">
-        <v>0.161372288216839</v>
+        <v>0.1790126897563742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02445853097379028</v>
+        <v>0.02489304561525688</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>752951555.4635806</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4248274441.284551</v>
+        <v>4351733701.670492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2165047215224882</v>
+        <v>0.1777645188862228</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04878808003965433</v>
+        <v>0.05278660501222304</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>181</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2124137261.770118</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4049755908.537591</v>
+        <v>2999911989.275213</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1344171679422592</v>
+        <v>0.1328577186551795</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04756973071990976</v>
+        <v>0.04571692323718408</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>177</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2024877970.413524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3199979873.440415</v>
+        <v>3176573918.836661</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1832686986142061</v>
+        <v>0.1879806133898816</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03588307691638751</v>
+        <v>0.04860777468192738</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>146</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1599989973.048445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3228139741.180403</v>
+        <v>5241491699.682721</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08945180502969745</v>
+        <v>0.07854528836375425</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02217471945759736</v>
+        <v>0.02126248695220589</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>144</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1614069964.739631</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2761882182.139353</v>
+        <v>2927580614.389598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1854660121866547</v>
+        <v>0.1840462123795193</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04196160088678607</v>
+        <v>0.03344509246428504</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>138</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1380941142.766973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1751752186.597582</v>
+        <v>1731242152.870062</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1046324042317061</v>
+        <v>0.06986700864879497</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03951203826555112</v>
+        <v>0.03481465378221497</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>875876235.8930475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2776401135.938308</v>
+        <v>2294499043.382701</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08732721758831943</v>
+        <v>0.08910415427673045</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03921025714806806</v>
+        <v>0.05105490368320376</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1388200574.122694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4461717820.929433</v>
+        <v>5067462408.173354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1701329694388853</v>
+        <v>0.154640824731053</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03246638341589883</v>
+        <v>0.04975281759398691</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2230858922.251462</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3127387323.297248</v>
+        <v>2743840913.909905</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1255018978419637</v>
+        <v>0.1376308259320234</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02553542650094554</v>
+        <v>0.02712122019704953</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>141</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1563693682.662217</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1174540567.083326</v>
+        <v>1332053896.3658</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1820925896020192</v>
+        <v>0.1277561842292858</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01739300327478847</v>
+        <v>0.02746681898406799</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>587270355.2623132</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2661633997.512696</v>
+        <v>1812599252.454408</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1151750675487153</v>
+        <v>0.148418879311124</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03161557046834829</v>
+        <v>0.02914156742189462</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>59</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1330816954.656335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1654554995.522605</v>
+        <v>1985782067.548666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07533111448586251</v>
+        <v>0.09417765161481406</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02910630432596017</v>
+        <v>0.03932691130463628</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>827277566.751614</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3012689065.286064</v>
+        <v>2644236591.063423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1298910274284423</v>
+        <v>0.1037428951607046</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04382750784060534</v>
+        <v>0.04807653167795044</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1506344593.434098</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1321840721.337316</v>
+        <v>1507408893.20179</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1318125472655885</v>
+        <v>0.1328953090145537</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05500699431856898</v>
+        <v>0.03513834187444685</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>660920376.6397045</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2527087008.190851</v>
+        <v>2844321369.41529</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1196067478266735</v>
+        <v>0.1288536464416363</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02773441074077211</v>
+        <v>0.02304080135140841</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>125</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1263543571.15536</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1358148585.8223</v>
+        <v>1463342135.072798</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09069893355812511</v>
+        <v>0.07778394961184862</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02610484468780743</v>
+        <v>0.02870452928612294</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>679074274.5167378</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1292474332.770912</v>
+        <v>1277923903.472068</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1012966827066482</v>
+        <v>0.09717134008532488</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02990330712063857</v>
+        <v>0.03840457843349687</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>646237210.0418283</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4058212377.999172</v>
+        <v>3186982874.804435</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09525914380260764</v>
+        <v>0.09749694068618925</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01744355054838126</v>
+        <v>0.02549667082827426</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2029106196.25784</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2421546793.545373</v>
+        <v>3514817862.552786</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1023335477007129</v>
+        <v>0.1373672410683344</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03326369373418545</v>
+        <v>0.0303130369452797</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>138</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1210773357.825871</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5024487749.320307</v>
+        <v>5000720335.056376</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1004821637032092</v>
+        <v>0.130208782841682</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03637410689152863</v>
+        <v>0.0389978937133672</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>190</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2512243820.591394</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1966455597.265434</v>
+        <v>1466123461.242136</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1102998382836307</v>
+        <v>0.1276397487534801</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03942473261575112</v>
+        <v>0.03452083623898972</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>983227832.288846</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1316267545.360569</v>
+        <v>1479882074.802957</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07260515858275632</v>
+        <v>0.08274920386690945</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05090206543391684</v>
+        <v>0.03476430729535151</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>658133696.7972877</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1413164260.05217</v>
+        <v>1504322266.318399</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08912789102141877</v>
+        <v>0.09769574515728539</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0293925412657675</v>
+        <v>0.03416802661057913</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>706582180.4079353</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2891979801.603118</v>
+        <v>3025553335.838981</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1375859798829896</v>
+        <v>0.1812714163029362</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04044036083523823</v>
+        <v>0.05453811850444074</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>130</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1445989905.629689</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1168007117.956092</v>
+        <v>1527714869.921514</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07537715541022609</v>
+        <v>0.07784187570106073</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02221790007307906</v>
+        <v>0.02383804827222807</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>584003569.279371</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1195416946.268252</v>
+        <v>1117637267.786945</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08577575595588376</v>
+        <v>0.09303363897383923</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04369086529253867</v>
+        <v>0.03586078389027927</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>597708448.8767945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2163538638.831801</v>
+        <v>2574006019.831295</v>
       </c>
       <c r="F36" t="n">
-        <v>0.125472697902187</v>
+        <v>0.158579144056648</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01839679735287137</v>
+        <v>0.02059669907702265</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1081769368.385484</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2804022771.978686</v>
+        <v>1960557955.512644</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07872319577862115</v>
+        <v>0.082531450774051</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0357710490885282</v>
+        <v>0.04164824102881481</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>116</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1402011523.869777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699425189.82199</v>
+        <v>1535833442.801918</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09249408318591919</v>
+        <v>0.08715334172971152</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03727169846706316</v>
+        <v>0.03085037379540223</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>849712616.0190606</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2078212319.763108</v>
+        <v>1633159041.341293</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1576170675119932</v>
+        <v>0.1400003442083311</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02146109896197742</v>
+        <v>0.0282061565213299</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1039106142.597002</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1281620789.561234</v>
+        <v>1338140704.331591</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1138003607213115</v>
+        <v>0.09916918687918182</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04275741382867437</v>
+        <v>0.04123599924006811</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>640810415.6650267</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2346290036.107769</v>
+        <v>1949017888.504032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1350370436773239</v>
+        <v>0.151971101295117</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03485947671278471</v>
+        <v>0.04243919707351767</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>107</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1173145058.362554</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4060906320.289404</v>
+        <v>2831183175.232071</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09875108460081652</v>
+        <v>0.1044055413718929</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04460075835042267</v>
+        <v>0.03046162090584753</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2030453193.613224</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2391256438.802111</v>
+        <v>2875170510.044088</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1929679145907325</v>
+        <v>0.1811043885491819</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01770893345704082</v>
+        <v>0.02303215333338083</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1195628279.001183</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1986322509.479875</v>
+        <v>2234478199.40591</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08908319613734235</v>
+        <v>0.07782274020707355</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02700270084305056</v>
+        <v>0.0286902639905053</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>993161358.3578228</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1969400358.933421</v>
+        <v>2499480889.919204</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1865279771173815</v>
+        <v>0.1806072787647866</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03614238309440295</v>
+        <v>0.04373352343516985</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>984700167.2399338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4553248843.782099</v>
+        <v>4175483804.424207</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1180874559838314</v>
+        <v>0.1120439153414453</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06092494898806296</v>
+        <v>0.05591731514768706</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>153</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2276624423.113082</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4058671710.258427</v>
+        <v>5194311697.067466</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1898942268568551</v>
+        <v>0.1435327962557314</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05000045028837811</v>
+        <v>0.03791695093075133</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2029335857.598516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2874458189.660112</v>
+        <v>4513665126.231584</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09629022762119027</v>
+        <v>0.07213080737066606</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02650513885879234</v>
+        <v>0.03788819506104774</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>141</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1437229194.612354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1528530755.195627</v>
+        <v>1526522694.015167</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158272030639122</v>
+        <v>0.1448166813447563</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03812977339138373</v>
+        <v>0.02950604197959015</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>764265405.2049279</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2838225648.775776</v>
+        <v>2672119239.882925</v>
       </c>
       <c r="F50" t="n">
-        <v>0.162713056470442</v>
+        <v>0.1219093193134901</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05166042364678143</v>
+        <v>0.04224008250997727</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>146</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1419112895.735614</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1171352187.415737</v>
+        <v>1189870877.722194</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1537250344324911</v>
+        <v>0.1659261315919166</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04440103761409259</v>
+        <v>0.0440825952575343</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>585676149.9199067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3891722677.556855</v>
+        <v>5295077773.485525</v>
       </c>
       <c r="F52" t="n">
-        <v>0.107428920409532</v>
+        <v>0.1002592235274833</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04468251342435881</v>
+        <v>0.05334407448420003</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>177</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1945861401.643863</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2442915150.659179</v>
+        <v>3057609833.166436</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1553700616730192</v>
+        <v>0.1648549640168426</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02567734777999134</v>
+        <v>0.03333757005799737</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1221457646.211151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4065462573.160177</v>
+        <v>4645238054.647508</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1666206246008811</v>
+        <v>0.1159485158423469</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03474320419308755</v>
+        <v>0.03235314955821079</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>139</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2032731355.808202</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3510067237.779782</v>
+        <v>4324037368.440013</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2228796409828886</v>
+        <v>0.196822062688549</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03072896247119427</v>
+        <v>0.03127526262612245</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1755033572.219731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1422708814.557137</v>
+        <v>1889473356.994411</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1557793383142458</v>
+        <v>0.1582340460325209</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05735348488642693</v>
+        <v>0.04048097704579643</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>711354461.0220501</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3905615137.330801</v>
+        <v>4018528049.082464</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1161020185409119</v>
+        <v>0.1239077916072489</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01941400486892653</v>
+        <v>0.01931053366026499</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>136</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1952807649.124768</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1301443752.934794</v>
+        <v>1394874671.090653</v>
       </c>
       <c r="F58" t="n">
-        <v>0.185221097853252</v>
+        <v>0.1899197261061525</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02486952331114524</v>
+        <v>0.02448183654633564</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>650721925.7398106</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4792473619.185637</v>
+        <v>4873118434.854483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113317782765134</v>
+        <v>0.1294872711899859</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04672784952056743</v>
+        <v>0.04037094697898284</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2396236747.329628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2724427667.683633</v>
+        <v>3053402642.373471</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1425281571383365</v>
+        <v>0.1490831967115887</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02430587947505467</v>
+        <v>0.0244021550065599</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1362213875.305746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2089701279.682894</v>
+        <v>3068651173.689659</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1538792453613307</v>
+        <v>0.1220021757640346</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02745210117850286</v>
+        <v>0.0286895207147773</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>147</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1044850706.173028</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1466067434.180594</v>
+        <v>1829244233.70013</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1823115048747271</v>
+        <v>0.1552020334132697</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03889737958670555</v>
+        <v>0.04920890983679545</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>733033695.0478107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3739736841.466872</v>
+        <v>4505178992.50618</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07096597470062416</v>
+        <v>0.1030759314741521</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03210977387770455</v>
+        <v>0.04069537222133548</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1869868494.749912</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4294622813.592093</v>
+        <v>3791737194.361668</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1360182246727731</v>
+        <v>0.1257201329942816</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02741598789277233</v>
+        <v>0.0349127839636058</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>133</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2147311463.401151</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5823147882.064119</v>
+        <v>3990808859.109082</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1416107035772152</v>
+        <v>0.1452013458014015</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02843095266252438</v>
+        <v>0.02086253231714557</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>154</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2911573850.843137</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4226747046.604443</v>
+        <v>3570053939.680007</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1599999474275714</v>
+        <v>0.1507558412942767</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04926617819505921</v>
+        <v>0.04337676923268455</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2113373509.021991</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2997520163.662107</v>
+        <v>3217996415.64166</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07961773735953739</v>
+        <v>0.06545435674454772</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05028330693003374</v>
+        <v>0.05085118810199924</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>137</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1498760100.290342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4926247009.484299</v>
+        <v>5507516637.373364</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1379560175035167</v>
+        <v>0.1055269782877815</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03519508689321003</v>
+        <v>0.04561440790146654</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2463123556.671805</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2278130150.603079</v>
+        <v>2039587822.126725</v>
       </c>
       <c r="F69" t="n">
-        <v>0.110772491538558</v>
+        <v>0.1442493246265648</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04831312857905074</v>
+        <v>0.05666193966887573</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1139065116.236791</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3345552723.400633</v>
+        <v>2951036138.604988</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0818705297023169</v>
+        <v>0.07947950222138514</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03380516815293637</v>
+        <v>0.03336776151860637</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>122</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1672776361.173211</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3943472368.463745</v>
+        <v>4843299198.34156</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1606022969518118</v>
+        <v>0.1451823453406327</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03171027592766183</v>
+        <v>0.02736722934026727</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>156</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1971736211.055822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1573568847.524636</v>
+        <v>1969006587.657558</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08017197403409319</v>
+        <v>0.09332285955663228</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0376563035903966</v>
+        <v>0.03750047958316335</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>786784438.8951923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2727400974.224212</v>
+        <v>2160366702.252074</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09699079968914098</v>
+        <v>0.09166060093997948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04788630647572524</v>
+        <v>0.04650327053633798</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>162</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1363700508.084339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3830589799.489478</v>
+        <v>2982445215.89565</v>
       </c>
       <c r="F74" t="n">
-        <v>0.11692699066985</v>
+        <v>0.1422209139671967</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03153954788003635</v>
+        <v>0.02464027507242198</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>146</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1915294893.373015</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2308950758.088329</v>
+        <v>2073836976.138562</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1427995239943732</v>
+        <v>0.1258766121077233</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02806939589073357</v>
+        <v>0.02510636465151844</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1154475314.284368</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4846732596.740368</v>
+        <v>4062045078.095351</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1002952989115104</v>
+        <v>0.1089980452280341</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02580765377295351</v>
+        <v>0.02865399258830283</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>104</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2423366318.581974</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2128912729.231377</v>
+        <v>1789407950.306992</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1632979364500298</v>
+        <v>0.1362417481035068</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02660825201286001</v>
+        <v>0.0211215173972816</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1064456445.16026</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3231581084.246915</v>
+        <v>3385612851.323327</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1249826710811973</v>
+        <v>0.1363415034853086</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05436817282110928</v>
+        <v>0.05663591908147063</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>149</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1615790562.870059</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1860325185.693016</v>
+        <v>1400671536.333968</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1759603170871047</v>
+        <v>0.1077961372806063</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03622328229766063</v>
+        <v>0.02630287299392894</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>930162690.0968393</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4658733736.992657</v>
+        <v>3478045884.23692</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09700400449082018</v>
+        <v>0.1042209175600068</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02472691346131517</v>
+        <v>0.02343747959226151</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2329366900.738238</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4379434616.948439</v>
+        <v>5043683779.029467</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08925243123750184</v>
+        <v>0.08315126082740958</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02169014406165884</v>
+        <v>0.02590462195491458</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2189717285.787762</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5357040293.566714</v>
+        <v>4076785232.406765</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2048260323105209</v>
+        <v>0.1523652858729844</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0180054468837614</v>
+        <v>0.02692023263320784</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>150</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2678520110.808992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1608046375.55698</v>
+        <v>2478730648.772427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1528600320443048</v>
+        <v>0.1262516618902156</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04418928774968015</v>
+        <v>0.04510519554374538</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>804023124.2929214</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1994508508.161569</v>
+        <v>1670099606.641061</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09652673604647773</v>
+        <v>0.1115785818385934</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04140636395022769</v>
+        <v>0.05167773314835859</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>997254259.9150885</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3224946722.898788</v>
+        <v>2446115799.349</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1736014013881772</v>
+        <v>0.1175626981363985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05324443652823086</v>
+        <v>0.05196980942642637</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>162</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1612473446.432078</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2519561733.525697</v>
+        <v>2050502725.838605</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1297084336513536</v>
+        <v>0.1051204332986549</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01667340411216655</v>
+        <v>0.02126759592509802</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1259780966.654787</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1375105909.96272</v>
+        <v>1021264451.879702</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1893892461300971</v>
+        <v>0.1864759194864966</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02860749177267705</v>
+        <v>0.02747826407302715</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687553055.4526271</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2258673387.951868</v>
+        <v>3395080339.438912</v>
       </c>
       <c r="F88" t="n">
-        <v>0.15374947768533</v>
+        <v>0.1280167106091048</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03248056982586097</v>
+        <v>0.03107989154091188</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>170</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1129336651.168132</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3500659170.914957</v>
+        <v>2328341711.699723</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1545548524362037</v>
+        <v>0.1282164895708167</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03739666668462731</v>
+        <v>0.03718589983487453</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>143</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1750329586.870503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1387081382.527532</v>
+        <v>2017887349.249321</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0975898209418138</v>
+        <v>0.1379194358625082</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04987959232052137</v>
+        <v>0.05430335708269816</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>693540649.376763</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1818690776.839464</v>
+        <v>1715872312.620061</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1792401408365139</v>
+        <v>0.1692356654274631</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04284990342642501</v>
+        <v>0.04620152861490275</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>909345384.8736387</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2579706899.600519</v>
+        <v>2681036120.207953</v>
       </c>
       <c r="F92" t="n">
-        <v>0.103584670092189</v>
+        <v>0.108549457163776</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03885072463103075</v>
+        <v>0.04232303300763867</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1289853439.76948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4134296994.926618</v>
+        <v>4182571992.748365</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1248671002281052</v>
+        <v>0.1098526078866214</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04363999792307354</v>
+        <v>0.04038182587838147</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2067148489.414757</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1548402565.644952</v>
+        <v>2422197295.275434</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1169322046528889</v>
+        <v>0.1397320165731114</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02876613249332886</v>
+        <v>0.03384252063887189</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>774201222.421901</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2492011669.663827</v>
+        <v>3052473732.56376</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0832123856873369</v>
+        <v>0.0948996396882993</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0426662860728071</v>
+        <v>0.03545945932041555</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1246005871.513353</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2103327340.932172</v>
+        <v>1514098044.056874</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08534275382284494</v>
+        <v>0.08996918040543096</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04161328724149668</v>
+        <v>0.04311579333107909</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1051663646.422735</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3778106527.019428</v>
+        <v>5005958276.43957</v>
       </c>
       <c r="F97" t="n">
-        <v>0.14888991968961</v>
+        <v>0.1311385633240767</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02275406229054723</v>
+        <v>0.02789057010663664</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1889053302.072134</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3791275643.875513</v>
+        <v>3295083627.210656</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1292261003409597</v>
+        <v>0.1018188295321681</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02870357955939385</v>
+        <v>0.0315912450847655</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>115</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1895637860.291135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2368342268.042622</v>
+        <v>2758888024.540144</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1144436464284429</v>
+        <v>0.09600218946540526</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03003111821525056</v>
+        <v>0.02860008104343916</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1184171074.231843</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3793147503.491825</v>
+        <v>3046134396.776448</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1655081630739798</v>
+        <v>0.1113806070427367</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02656840860750786</v>
+        <v>0.01925787229020674</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>131</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1896573805.911613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3242213021.365606</v>
+        <v>2954022998.60093</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1909275057743833</v>
+        <v>0.2034040640205652</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04473465046160613</v>
+        <v>0.05094946002284906</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>174</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1621106631.741446</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_429.xlsx
+++ b/output/fit_clients/fit_round_429.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2332849486.621479</v>
+        <v>2001996328.73333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0950765484454775</v>
+        <v>0.1034440092234141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02985095407683755</v>
+        <v>0.04477525916610934</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2276516551.140985</v>
+        <v>2067736538.716543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1271687288827896</v>
+        <v>0.1608547111474694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04641085893249736</v>
+        <v>0.04903574809596149</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4707263320.556748</v>
+        <v>3173989779.736825</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1311313850770314</v>
+        <v>0.1157078489452635</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0381988299058638</v>
+        <v>0.03743047385328191</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3005374823.699756</v>
+        <v>2720970315.940003</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08777305261258173</v>
+        <v>0.07445808278327018</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03418988144606198</v>
+        <v>0.04807236037856621</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2855742754.062635</v>
+        <v>2077093810.161744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1379674266084808</v>
+        <v>0.1457991135138058</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05612394579755203</v>
+        <v>0.04574428184485078</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2681473588.608445</v>
+        <v>2185310681.523711</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08358795856884377</v>
+        <v>0.08299904493603485</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03545014661794615</v>
+        <v>0.04164501552071824</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3333049293.193196</v>
+        <v>3703325847.877782</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1634587503626375</v>
+        <v>0.2168439245090882</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02855389736962455</v>
+        <v>0.02742567663712855</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2094556994.246018</v>
+        <v>1656230725.725768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1790126897563742</v>
+        <v>0.1745840609460101</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02489304561525688</v>
+        <v>0.02472556088243149</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4351733701.670492</v>
+        <v>5113151020.262638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1777645188862228</v>
+        <v>0.1364573133521117</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05278660501222304</v>
+        <v>0.05391579910915124</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2999911989.275213</v>
+        <v>4220158687.734515</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1328577186551795</v>
+        <v>0.1842167286937309</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04571692323718408</v>
+        <v>0.03896452293023726</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3176573918.836661</v>
+        <v>2840438863.768824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1879806133898816</v>
+        <v>0.1467036692091394</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04860777468192738</v>
+        <v>0.05271567842876927</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5241491699.682721</v>
+        <v>3741325733.317005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07854528836375425</v>
+        <v>0.1011440960959141</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02126248695220589</v>
+        <v>0.02465049104848006</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2927580614.389598</v>
+        <v>3586921717.400791</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1840462123795193</v>
+        <v>0.1406646703385803</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03344509246428504</v>
+        <v>0.04006468678229162</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1731242152.870062</v>
+        <v>1460753714.974884</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06986700864879497</v>
+        <v>0.0686572975727681</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03481465378221497</v>
+        <v>0.03300489285000769</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2294499043.382701</v>
+        <v>2885462488.187484</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08910415427673045</v>
+        <v>0.08335911865754693</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05105490368320376</v>
+        <v>0.04213087917525891</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5067462408.173354</v>
+        <v>5269265795.575858</v>
       </c>
       <c r="F17" t="n">
-        <v>0.154640824731053</v>
+        <v>0.1299733366049204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04975281759398691</v>
+        <v>0.04589315114091998</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2743840913.909905</v>
+        <v>3529887106.731154</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1376308259320234</v>
+        <v>0.1692069086523173</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02712122019704953</v>
+        <v>0.02099291486604755</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1332053896.3658</v>
+        <v>1130981083.955693</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1277561842292858</v>
+        <v>0.1765066345054048</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02746681898406799</v>
+        <v>0.01837495083366125</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1812599252.454408</v>
+        <v>2158869421.765257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.148418879311124</v>
+        <v>0.1364705519824634</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02914156742189462</v>
+        <v>0.02401636328133749</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1985782067.548666</v>
+        <v>2437321775.838891</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09417765161481406</v>
+        <v>0.1004792717687956</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03932691130463628</v>
+        <v>0.04085043974995563</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2644236591.063423</v>
+        <v>2934179596.721467</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1037428951607046</v>
+        <v>0.1198093703808386</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04807653167795044</v>
+        <v>0.04731022222385784</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1507408893.20179</v>
+        <v>1141399596.020405</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1328953090145537</v>
+        <v>0.1328541569238642</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03513834187444685</v>
+        <v>0.04373306771679594</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2844321369.41529</v>
+        <v>3380176320.700405</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1288536464416363</v>
+        <v>0.1149181878792273</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02304080135140841</v>
+        <v>0.0337547133759028</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1463342135.072798</v>
+        <v>1051130528.511307</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07778394961184862</v>
+        <v>0.0988394166240299</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02870452928612294</v>
+        <v>0.02493057333688651</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1277923903.472068</v>
+        <v>876469788.0556524</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09717134008532488</v>
+        <v>0.1199248918583325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03840457843349687</v>
+        <v>0.03473617880868753</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3186982874.804435</v>
+        <v>4005838635.686159</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09749694068618925</v>
+        <v>0.1198314012765085</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02549667082827426</v>
+        <v>0.02286603782488868</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3514817862.552786</v>
+        <v>3720811942.316557</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1373672410683344</v>
+        <v>0.1516710868315786</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0303130369452797</v>
+        <v>0.04209392621616402</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5000720335.056376</v>
+        <v>4540293094.551885</v>
       </c>
       <c r="F29" t="n">
-        <v>0.130208782841682</v>
+        <v>0.1061505688183573</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0389978937133672</v>
+        <v>0.0330238635286158</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1466123461.242136</v>
+        <v>2268183608.535613</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1276397487534801</v>
+        <v>0.100733312465417</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03452083623898972</v>
+        <v>0.03568991936415482</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1479882074.802957</v>
+        <v>1309125838.073372</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08274920386690945</v>
+        <v>0.1008405879412741</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03476430729535151</v>
+        <v>0.03342275355753288</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1504322266.318399</v>
+        <v>1523269415.510079</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09769574515728539</v>
+        <v>0.1005139150456256</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03416802661057913</v>
+        <v>0.03514886838373224</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3025553335.838981</v>
+        <v>2545894517.275679</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1812714163029362</v>
+        <v>0.1936683806223883</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05453811850444074</v>
+        <v>0.0533274377740475</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1527714869.921514</v>
+        <v>1133349938.073347</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07784187570106073</v>
+        <v>0.1145008612333347</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02383804827222807</v>
+        <v>0.02116715077185611</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117637267.786945</v>
+        <v>913095922.5335352</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09303363897383923</v>
+        <v>0.0730609487588561</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03586078389027927</v>
+        <v>0.03612782172509453</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2574006019.831295</v>
+        <v>2007219909.157102</v>
       </c>
       <c r="F36" t="n">
-        <v>0.158579144056648</v>
+        <v>0.1402336058842855</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02059669907702265</v>
+        <v>0.02451517605130462</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1960557955.512644</v>
+        <v>2043924962.778288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.082531450774051</v>
+        <v>0.1108071323626633</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04164824102881481</v>
+        <v>0.02591006438934918</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1535833442.801918</v>
+        <v>2013859173.483128</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08715334172971152</v>
+        <v>0.09659137419817987</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03085037379540223</v>
+        <v>0.03855732198925266</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1633159041.341293</v>
+        <v>1491997896.550032</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1400003442083311</v>
+        <v>0.1366575894452856</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0282061565213299</v>
+        <v>0.0287449305534853</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1338140704.331591</v>
+        <v>1371716911.785807</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09916918687918182</v>
+        <v>0.1501576348061441</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04123599924006811</v>
+        <v>0.0601106007076053</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1949017888.504032</v>
+        <v>2469312780.480863</v>
       </c>
       <c r="F41" t="n">
-        <v>0.151971101295117</v>
+        <v>0.1176472127672656</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04243919707351767</v>
+        <v>0.04246229708201704</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2831183175.232071</v>
+        <v>4155097096.756782</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1044055413718929</v>
+        <v>0.0911340067426346</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03046162090584753</v>
+        <v>0.03218701809290292</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2875170510.044088</v>
+        <v>2491711834.778623</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1811043885491819</v>
+        <v>0.1439054689388893</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02303215333338083</v>
+        <v>0.02364007070581113</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2234478199.40591</v>
+        <v>1732950232.313554</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07782274020707355</v>
+        <v>0.06573228391721653</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0286902639905053</v>
+        <v>0.0244676446725092</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2499480889.919204</v>
+        <v>2271548066.46574</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1806072787647866</v>
+        <v>0.1737925708690371</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04373352343516985</v>
+        <v>0.03799763938321701</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4175483804.424207</v>
+        <v>5504199299.336677</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1120439153414453</v>
+        <v>0.1201321440969789</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05591731514768706</v>
+        <v>0.0456825338558445</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5194311697.067466</v>
+        <v>4762676260.715954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1435327962557314</v>
+        <v>0.1619494309103784</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03791695093075133</v>
+        <v>0.05111734850716816</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4513665126.231584</v>
+        <v>4637510346.239788</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07213080737066606</v>
+        <v>0.06856926877994457</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03788819506104774</v>
+        <v>0.0391359612744737</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1526522694.015167</v>
+        <v>1631466063.257406</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1448166813447563</v>
+        <v>0.1817264712471306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02950604197959015</v>
+        <v>0.04074455933668923</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2672119239.882925</v>
+        <v>3705140622.319027</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1219093193134901</v>
+        <v>0.1091388510805192</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04224008250997727</v>
+        <v>0.04160453405814272</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1189870877.722194</v>
+        <v>1223166458.994701</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1659261315919166</v>
+        <v>0.1607952762850094</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0440825952575343</v>
+        <v>0.03757864716049146</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5295077773.485525</v>
+        <v>3765629272.164631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1002592235274833</v>
+        <v>0.1318895325563127</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05334407448420003</v>
+        <v>0.04753278310636901</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3057609833.166436</v>
+        <v>3744432967.915476</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1648549640168426</v>
+        <v>0.1579389697563773</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03333757005799737</v>
+        <v>0.03302681478562006</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4645238054.647508</v>
+        <v>4545651478.141553</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1159485158423469</v>
+        <v>0.1031180592495069</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03235314955821079</v>
+        <v>0.04752230074821219</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4324037368.440013</v>
+        <v>3016723972.458257</v>
       </c>
       <c r="F55" t="n">
-        <v>0.196822062688549</v>
+        <v>0.1364420014686357</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03127526262612245</v>
+        <v>0.02117283117211859</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1889473356.994411</v>
+        <v>1278663210.493516</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1582340460325209</v>
+        <v>0.1311623163055233</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04048097704579643</v>
+        <v>0.05668043659279596</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4018528049.082464</v>
+        <v>3467777706.934538</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1239077916072489</v>
+        <v>0.1272244656024898</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01931053366026499</v>
+        <v>0.02087186813548089</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1394874671.090653</v>
+        <v>1511077751.023157</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1899197261061525</v>
+        <v>0.202263267224748</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02448183654633564</v>
+        <v>0.03355874554047498</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4873118434.854483</v>
+        <v>3905643144.179171</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1294872711899859</v>
+        <v>0.1235284455479198</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04037094697898284</v>
+        <v>0.04047948059967114</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3053402642.373471</v>
+        <v>3290696253.81688</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1490831967115887</v>
+        <v>0.157387539377349</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0244021550065599</v>
+        <v>0.03243721750951796</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3068651173.689659</v>
+        <v>2548994475.035802</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1220021757640346</v>
+        <v>0.1163743443103242</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0286895207147773</v>
+        <v>0.02026444538497361</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1829244233.70013</v>
+        <v>2026013254.900714</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1552020334132697</v>
+        <v>0.1590930315266818</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04920890983679545</v>
+        <v>0.03510402338318089</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4505178992.50618</v>
+        <v>4016354526.311584</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1030759314741521</v>
+        <v>0.0736564806444721</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04069537222133548</v>
+        <v>0.03009283454799546</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3791737194.361668</v>
+        <v>3661358354.347591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1257201329942816</v>
+        <v>0.1614090642564357</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0349127839636058</v>
+        <v>0.02201726185177783</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3990808859.109082</v>
+        <v>5212504734.752523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1452013458014015</v>
+        <v>0.1290240026152502</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02086253231714557</v>
+        <v>0.02214423980450327</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3570053939.680007</v>
+        <v>5469671019.961255</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1507558412942767</v>
+        <v>0.1568957036236114</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04337676923268455</v>
+        <v>0.04712360326435443</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3217996415.64166</v>
+        <v>2334311653.361829</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06545435674454772</v>
+        <v>0.08316398959701841</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05085118810199924</v>
+        <v>0.03264087979669804</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5507516637.373364</v>
+        <v>4375560775.880289</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1055269782877815</v>
+        <v>0.1234962118482553</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04561440790146654</v>
+        <v>0.04094284052293424</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2039587822.126725</v>
+        <v>2325479323.980755</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1442493246265648</v>
+        <v>0.1231906911304306</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05666193966887573</v>
+        <v>0.03994480959715804</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2951036138.604988</v>
+        <v>3513757274.149645</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07947950222138514</v>
+        <v>0.08416519119494038</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03336776151860637</v>
+        <v>0.03334422841637438</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4843299198.34156</v>
+        <v>5229289591.290697</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1451823453406327</v>
+        <v>0.167134786065931</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02736722934026727</v>
+        <v>0.02816458897280158</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1969006587.657558</v>
+        <v>2082195075.659764</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09332285955663228</v>
+        <v>0.07019568191975456</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03750047958316335</v>
+        <v>0.04771287349010135</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2160366702.252074</v>
+        <v>3059657469.553456</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09166060093997948</v>
+        <v>0.08295452260027529</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04650327053633798</v>
+        <v>0.04681208085370629</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2982445215.89565</v>
+        <v>3445049100.512024</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1422209139671967</v>
+        <v>0.1843396221149097</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02464027507242198</v>
+        <v>0.0234859761765195</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2073836976.138562</v>
+        <v>1778689942.150841</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1258766121077233</v>
+        <v>0.1482962397560579</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02510636465151844</v>
+        <v>0.03099017630406515</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4062045078.095351</v>
+        <v>4186309256.782826</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1089980452280341</v>
+        <v>0.1105472510145251</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02865399258830283</v>
+        <v>0.02963402893540029</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1789407950.306992</v>
+        <v>1476600455.167242</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1362417481035068</v>
+        <v>0.1728643789521738</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0211215173972816</v>
+        <v>0.02211976079751215</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3385612851.323327</v>
+        <v>4239274114.92165</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1363415034853086</v>
+        <v>0.09246258674600472</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05663591908147063</v>
+        <v>0.04053677685497294</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1400671536.333968</v>
+        <v>1212559838.674636</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1077961372806063</v>
+        <v>0.1540396479598454</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02630287299392894</v>
+        <v>0.03583829620347613</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3478045884.23692</v>
+        <v>3789837669.218783</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1042209175600068</v>
+        <v>0.09567003726330242</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02343747959226151</v>
+        <v>0.03419878184515328</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5043683779.029467</v>
+        <v>3480916998.850368</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08315126082740958</v>
+        <v>0.09544523057552221</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02590462195491458</v>
+        <v>0.02427176708224888</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4076785232.406765</v>
+        <v>3931830893.992589</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1523652858729844</v>
+        <v>0.158255888447488</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02692023263320784</v>
+        <v>0.02090754837470931</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2478730648.772427</v>
+        <v>1662960860.674565</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1262516618902156</v>
+        <v>0.1253104016718163</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04510519554374538</v>
+        <v>0.04525793641567676</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1670099606.641061</v>
+        <v>2567929931.696444</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115785818385934</v>
+        <v>0.104756404669989</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05167773314835859</v>
+        <v>0.04628911290950961</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2446115799.349</v>
+        <v>3414815658.537991</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1175626981363985</v>
+        <v>0.1438358173630861</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05196980942642637</v>
+        <v>0.05602509638531948</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2050502725.838605</v>
+        <v>2806980952.493433</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1051204332986549</v>
+        <v>0.1249548948884328</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02126759592509802</v>
+        <v>0.02132383751164537</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1021264451.879702</v>
+        <v>1487022089.466401</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1864759194864966</v>
+        <v>0.1216350455929791</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02747826407302715</v>
+        <v>0.02689156075609297</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3395080339.438912</v>
+        <v>3188015666.897364</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1280167106091048</v>
+        <v>0.1242795351855654</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03107989154091188</v>
+        <v>0.02650003672733618</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2328341711.699723</v>
+        <v>3381040166.155425</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1282164895708167</v>
+        <v>0.1037403692600791</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03718589983487453</v>
+        <v>0.03497691687756586</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2017887349.249321</v>
+        <v>1753218952.941719</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1379194358625082</v>
+        <v>0.1230876512014114</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05430335708269816</v>
+        <v>0.03801555793222713</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1715872312.620061</v>
+        <v>1975332138.593573</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1692356654274631</v>
+        <v>0.150987100314414</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04620152861490275</v>
+        <v>0.05814928046401763</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2681036120.207953</v>
+        <v>2472879380.317654</v>
       </c>
       <c r="F92" t="n">
-        <v>0.108549457163776</v>
+        <v>0.1073364013649179</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04232303300763867</v>
+        <v>0.04703280616529643</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4182571992.748365</v>
+        <v>4647658768.615495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1098526078866214</v>
+        <v>0.1396856062845073</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04038182587838147</v>
+        <v>0.05012063587610972</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2422197295.275434</v>
+        <v>2329547464.839858</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1397320165731114</v>
+        <v>0.1072755662650745</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03384252063887189</v>
+        <v>0.03719560089323082</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3052473732.56376</v>
+        <v>2751055144.328393</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0948996396882993</v>
+        <v>0.104663463985504</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03545945932041555</v>
+        <v>0.0502685673246928</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1514098044.056874</v>
+        <v>1458269965.198094</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08996918040543096</v>
+        <v>0.1291893506870206</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04311579333107909</v>
+        <v>0.03723451913140527</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5005958276.43957</v>
+        <v>4986888734.215846</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1311385633240767</v>
+        <v>0.132990471651018</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02789057010663664</v>
+        <v>0.02129900349033602</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3295083627.210656</v>
+        <v>3133717698.841493</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1018188295321681</v>
+        <v>0.1167266383360347</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0315912450847655</v>
+        <v>0.02734077021261922</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2758888024.540144</v>
+        <v>2625494026.833296</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09600218946540526</v>
+        <v>0.1110852668719192</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02860008104343916</v>
+        <v>0.03300595960396915</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3046134396.776448</v>
+        <v>3151262536.530888</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1113806070427367</v>
+        <v>0.1542544907065112</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01925787229020674</v>
+        <v>0.02267295975971855</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2954022998.60093</v>
+        <v>3152118573.197351</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2034040640205652</v>
+        <v>0.1995059830129581</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05094946002284906</v>
+        <v>0.0362319649572139</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_429.xlsx
+++ b/output/fit_clients/fit_round_429.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2001996328.73333</v>
+        <v>2417526920.853392</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1034440092234141</v>
+        <v>0.09092901174925194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04477525916610934</v>
+        <v>0.03779158252847701</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2067736538.716543</v>
+        <v>2537447802.327625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1608547111474694</v>
+        <v>0.1193639304189729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04903574809596149</v>
+        <v>0.03158116893396601</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3173989779.736825</v>
+        <v>3751300895.228796</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1157078489452635</v>
+        <v>0.1304748451090805</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03743047385328191</v>
+        <v>0.03587782564344837</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>218</v>
+      </c>
+      <c r="J4" t="n">
+        <v>428</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.82488768635358</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2720970315.940003</v>
+        <v>3866265656.669869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07445808278327018</v>
+        <v>0.1072054388642177</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04807236037856621</v>
+        <v>0.0397834286122923</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>177</v>
+      </c>
+      <c r="J5" t="n">
+        <v>429</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49.72663225230453</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2077093810.161744</v>
+        <v>2033756076.896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1457991135138058</v>
+        <v>0.1051034420029211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04574428184485078</v>
+        <v>0.04203542111483635</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2185310681.523711</v>
+        <v>2355708680.211995</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08299904493603485</v>
+        <v>0.09708048511686883</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04164501552071824</v>
+        <v>0.03267373885973619</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3703325847.877782</v>
+        <v>3654434776.362475</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2168439245090882</v>
+        <v>0.1526075735006903</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02742567663712855</v>
+        <v>0.02762038139748684</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>429</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1656230725.725768</v>
+        <v>2288413208.952529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1745840609460101</v>
+        <v>0.1200720472232879</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02472556088243149</v>
+        <v>0.02722190833240019</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5113151020.262638</v>
+        <v>4471535472.50855</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1364573133521117</v>
+        <v>0.2122051148687381</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05391579910915124</v>
+        <v>0.04000455171804666</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>339</v>
+      </c>
+      <c r="J10" t="n">
+        <v>429</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4220158687.734515</v>
+        <v>2846765657.701485</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1842167286937309</v>
+        <v>0.1785770696049733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03896452293023726</v>
+        <v>0.04346939218481426</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2840438863.768824</v>
+        <v>2712177464.954742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1467036692091394</v>
+        <v>0.1862972360575993</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05271567842876927</v>
+        <v>0.05019102325914679</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3741325733.317005</v>
+        <v>5061997114.11449</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1011440960959141</v>
+        <v>0.09822189665933644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02465049104848006</v>
+        <v>0.02308990183135647</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>224</v>
+      </c>
+      <c r="J13" t="n">
+        <v>429</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3586921717.400791</v>
+        <v>2492751242.722561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1406646703385803</v>
+        <v>0.1688394016341793</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04006468678229162</v>
+        <v>0.04400563389593463</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1460753714.974884</v>
+        <v>1604156273.644475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0686572975727681</v>
+        <v>0.08300118206154701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03300489285000769</v>
+        <v>0.03052967556169389</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2885462488.187484</v>
+        <v>2483302648.637511</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08335911865754693</v>
+        <v>0.07901024564780713</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04213087917525891</v>
+        <v>0.04458352662242519</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5269265795.575858</v>
+        <v>4771009456.50202</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1299733366049204</v>
+        <v>0.1414406494614663</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04589315114091998</v>
+        <v>0.04850984100221374</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>208</v>
+      </c>
+      <c r="J17" t="n">
+        <v>429</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3529887106.731154</v>
+        <v>2943601715.091442</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1692069086523173</v>
+        <v>0.1225295240131024</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02099291486604755</v>
+        <v>0.02464640062401456</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1130981083.955693</v>
+        <v>1332332861.137656</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1765066345054048</v>
+        <v>0.1159499030766192</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01837495083366125</v>
+        <v>0.01739791126231399</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2158869421.765257</v>
+        <v>1911445891.070176</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1364705519824634</v>
+        <v>0.1086957381867134</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02401636328133749</v>
+        <v>0.02427589288325066</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2437321775.838891</v>
+        <v>2389553368.279316</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1004792717687956</v>
+        <v>0.0884323826538736</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04085043974995563</v>
+        <v>0.04165342316201322</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1199,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2934179596.721467</v>
+        <v>3725674507.081475</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1198093703808386</v>
+        <v>0.09940200052690619</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04731022222385784</v>
+        <v>0.04081744754507834</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>123</v>
+      </c>
+      <c r="J22" t="n">
+        <v>429</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.6521756496411</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1141399596.020405</v>
+        <v>986579492.6045388</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1328541569238642</v>
+        <v>0.1728627887959909</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04373306771679594</v>
+        <v>0.03436866369432223</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3380176320.700405</v>
+        <v>3731104231.082714</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1149181878792273</v>
+        <v>0.1382437554609993</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0337547133759028</v>
+        <v>0.03642893109603269</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>136</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="n">
+        <v>44.38461322478366</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1051130528.511307</v>
+        <v>1065946578.232013</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0988394166240299</v>
+        <v>0.0825995377430896</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02493057333688651</v>
+        <v>0.02823212553355925</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>876469788.0556524</v>
+        <v>954617632.1092796</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1199248918583325</v>
+        <v>0.09554265834242222</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03473617880868753</v>
+        <v>0.03247123293319749</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4005838635.686159</v>
+        <v>4345330327.294761</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1198314012765085</v>
+        <v>0.1264184481859303</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02286603782488868</v>
+        <v>0.02598184296719967</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>185</v>
+      </c>
+      <c r="J27" t="n">
+        <v>428</v>
+      </c>
+      <c r="K27" t="n">
+        <v>42.19085454387886</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3720811942.316557</v>
+        <v>3254482787.422268</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1516710868315786</v>
+        <v>0.1390785311625592</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04209392621616402</v>
+        <v>0.04044128546045709</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4540293094.551885</v>
+        <v>3648591204.925211</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1061505688183573</v>
+        <v>0.09490834003267636</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0330238635286158</v>
+        <v>0.03034058396471146</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>355</v>
+      </c>
+      <c r="J29" t="n">
+        <v>429</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2268183608.535613</v>
+        <v>2363554672.495993</v>
       </c>
       <c r="F30" t="n">
-        <v>0.100733312465417</v>
+        <v>0.101741742050668</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03568991936415482</v>
+        <v>0.02793083833277356</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1309125838.073372</v>
+        <v>1176934363.01807</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1008405879412741</v>
+        <v>0.1119711786008929</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03342275355753288</v>
+        <v>0.0350365800872118</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1523269415.510079</v>
+        <v>1655465817.571704</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1005139150456256</v>
+        <v>0.07753085947784852</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03514886838373224</v>
+        <v>0.03415310684028279</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2545894517.275679</v>
+        <v>1914014979.03685</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1936683806223883</v>
+        <v>0.1320413619293589</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0533274377740475</v>
+        <v>0.05555767771853689</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1133349938.073347</v>
+        <v>1045760329.757225</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1145008612333347</v>
+        <v>0.1100123522212203</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02116715077185611</v>
+        <v>0.02090187419222077</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>913095922.5335352</v>
+        <v>1082702141.627312</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0730609487588561</v>
+        <v>0.08297089867943948</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03612782172509453</v>
+        <v>0.03701977656061124</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2007219909.157102</v>
+        <v>3041678343.687142</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1402336058842855</v>
+        <v>0.1735259003775588</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02451517605130462</v>
+        <v>0.02853360570465252</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2043924962.778288</v>
+        <v>2152910841.725277</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1108071323626633</v>
+        <v>0.09491525353621598</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02591006438934918</v>
+        <v>0.03750059129603368</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2013859173.483128</v>
+        <v>2011366701.971747</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09659137419817987</v>
+        <v>0.0922226859845206</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03855732198925266</v>
+        <v>0.02545812448751075</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1491997896.550032</v>
+        <v>1644943141.896723</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1366575894452856</v>
+        <v>0.119420413985569</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0287449305534853</v>
+        <v>0.02080367647405839</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1371716911.785807</v>
+        <v>1227464919.385229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1501576348061441</v>
+        <v>0.1218672227294234</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0601106007076053</v>
+        <v>0.04439373049591058</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2469312780.480863</v>
+        <v>1829438950.486139</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1176472127672656</v>
+        <v>0.1425979832749651</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04246229708201704</v>
+        <v>0.03157449435850071</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4155097096.756782</v>
+        <v>2719715110.307335</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0911340067426346</v>
+        <v>0.0788650565285309</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03218701809290292</v>
+        <v>0.04316160340138402</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>184</v>
+      </c>
+      <c r="J42" t="n">
+        <v>428</v>
+      </c>
+      <c r="K42" t="n">
+        <v>24.30901635329199</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2491711834.778623</v>
+        <v>2149545619.15401</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1439054689388893</v>
+        <v>0.1520167708469133</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02364007070581113</v>
+        <v>0.02308415913134756</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1732950232.313554</v>
+        <v>1835445665.024203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06573228391721653</v>
+        <v>0.09184016050049686</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0244676446725092</v>
+        <v>0.02712825253064063</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2271548066.46574</v>
+        <v>2254251257.423208</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1737925708690371</v>
+        <v>0.1353537692432443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03799763938321701</v>
+        <v>0.05348551712649838</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5504199299.336677</v>
+        <v>4447412612.215136</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1201321440969789</v>
+        <v>0.1596994413480557</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0456825338558445</v>
+        <v>0.03885741649946739</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>256</v>
+      </c>
+      <c r="J46" t="n">
+        <v>428</v>
+      </c>
+      <c r="K46" t="n">
+        <v>40.62586097700137</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4762676260.715954</v>
+        <v>5047187522.255731</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1619494309103784</v>
+        <v>0.1353159809464379</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05111734850716816</v>
+        <v>0.05220748344105357</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>192</v>
+      </c>
+      <c r="J47" t="n">
+        <v>428</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.30378779566331</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4637510346.239788</v>
+        <v>4086992560.932538</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06856926877994457</v>
+        <v>0.1093109168143723</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0391359612744737</v>
+        <v>0.03892811590138409</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>219</v>
+      </c>
+      <c r="J48" t="n">
+        <v>429</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1631466063.257406</v>
+        <v>1707837679.725217</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1817264712471306</v>
+        <v>0.1849290480546861</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04074455933668923</v>
+        <v>0.03147305203059283</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3705140622.319027</v>
+        <v>3550799469.320745</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1091388510805192</v>
+        <v>0.151973034644404</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04160453405814272</v>
+        <v>0.03333385807151781</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>149</v>
+      </c>
+      <c r="J50" t="n">
+        <v>429</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1223166458.994701</v>
+        <v>1404228914.187029</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1607952762850094</v>
+        <v>0.1386805630599522</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03757864716049146</v>
+        <v>0.04796746606331607</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3765629272.164631</v>
+        <v>3483751097.498788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1318895325563127</v>
+        <v>0.09198697860850534</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04753278310636901</v>
+        <v>0.05520085475632751</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>246</v>
+      </c>
+      <c r="J52" t="n">
+        <v>429</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3744432967.915476</v>
+        <v>3450900304.284838</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1579389697563773</v>
+        <v>0.1757087772931331</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03302681478562006</v>
+        <v>0.02652559496359103</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4545651478.141553</v>
+        <v>3390611629.82905</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1031180592495069</v>
+        <v>0.1647763616649007</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04752230074821219</v>
+        <v>0.04810212128104912</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>229</v>
+      </c>
+      <c r="J54" t="n">
+        <v>427</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3016723972.458257</v>
+        <v>3456752878.127635</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1364420014686357</v>
+        <v>0.1858319592104799</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02117283117211859</v>
+        <v>0.02550024552334612</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>212</v>
+      </c>
+      <c r="J55" t="n">
+        <v>427</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1278663210.493516</v>
+        <v>1592962202.818856</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1311623163055233</v>
+        <v>0.1601523887665181</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05668043659279596</v>
+        <v>0.04315555255522134</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3467777706.934538</v>
+        <v>4073246766.943649</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1272244656024898</v>
+        <v>0.11189026735144</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02087186813548089</v>
+        <v>0.0171254205548789</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>187</v>
+      </c>
+      <c r="J57" t="n">
+        <v>428</v>
+      </c>
+      <c r="K57" t="n">
+        <v>41.25769088042903</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1511077751.023157</v>
+        <v>1283961054.942087</v>
       </c>
       <c r="F58" t="n">
-        <v>0.202263267224748</v>
+        <v>0.1393429672661009</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03355874554047498</v>
+        <v>0.02479911450740282</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3905643144.179171</v>
+        <v>5200537975.939332</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1235284455479198</v>
+        <v>0.1269963666996038</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04047948059967114</v>
+        <v>0.03774990709806395</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>210</v>
+      </c>
+      <c r="J59" t="n">
+        <v>428</v>
+      </c>
+      <c r="K59" t="n">
+        <v>40.57110386646648</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3290696253.81688</v>
+        <v>2292550443.503261</v>
       </c>
       <c r="F60" t="n">
-        <v>0.157387539377349</v>
+        <v>0.1807951386194718</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03243721750951796</v>
+        <v>0.03071937455226665</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2548994475.035802</v>
+        <v>3275896620.463705</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1163743443103242</v>
+        <v>0.1337501114229139</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02026444538497361</v>
+        <v>0.03174471684836366</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2026013254.900714</v>
+        <v>1432301821.928308</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1590930315266818</v>
+        <v>0.1430454531372712</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03510402338318089</v>
+        <v>0.03314801830273603</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4016354526.311584</v>
+        <v>5583145653.586704</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0736564806444721</v>
+        <v>0.07018819500372737</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03009283454799546</v>
+        <v>0.03450937451425973</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>214</v>
+      </c>
+      <c r="J63" t="n">
+        <v>428</v>
+      </c>
+      <c r="K63" t="n">
+        <v>39.46302143034885</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3661358354.347591</v>
+        <v>3421769932.067656</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1614090642564357</v>
+        <v>0.1710686394849805</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02201726185177783</v>
+        <v>0.0221977654578885</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>215</v>
+      </c>
+      <c r="J64" t="n">
+        <v>428</v>
+      </c>
+      <c r="K64" t="n">
+        <v>29.74096338881134</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5212504734.752523</v>
+        <v>4262258707.057952</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1290240026152502</v>
+        <v>0.1414642868470045</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02214423980450327</v>
+        <v>0.03134829696172284</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>312</v>
+      </c>
+      <c r="J65" t="n">
+        <v>428</v>
+      </c>
+      <c r="K65" t="n">
+        <v>39.04531124572886</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5469671019.961255</v>
+        <v>5245020674.983929</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1568957036236114</v>
+        <v>0.102434833560958</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04712360326435443</v>
+        <v>0.03601113210519797</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>211</v>
+      </c>
+      <c r="J66" t="n">
+        <v>429</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2334311653.361829</v>
+        <v>3211863335.861482</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08316398959701841</v>
+        <v>0.08150746128555955</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03264087979669804</v>
+        <v>0.03763593583828865</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4375560775.880289</v>
+        <v>4579585105.969145</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1234962118482553</v>
+        <v>0.1264780072739241</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04094284052293424</v>
+        <v>0.03186919829172367</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>234</v>
+      </c>
+      <c r="J68" t="n">
+        <v>428</v>
+      </c>
+      <c r="K68" t="n">
+        <v>38.87325120932783</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2325479323.980755</v>
+        <v>1554781320.629916</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1231906911304306</v>
+        <v>0.1793792851497409</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03994480959715804</v>
+        <v>0.04872093502421911</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3513757274.149645</v>
+        <v>3688514873.565725</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08416519119494038</v>
+        <v>0.07079792697183745</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03334422841637438</v>
+        <v>0.0371791473575648</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>429</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5229289591.290697</v>
+        <v>4246119308.344623</v>
       </c>
       <c r="F71" t="n">
-        <v>0.167134786065931</v>
+        <v>0.1274086990010194</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02816458897280158</v>
+        <v>0.03277012012739455</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>298</v>
+      </c>
+      <c r="J71" t="n">
+        <v>429</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2082195075.659764</v>
+        <v>1966725507.30547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07019568191975456</v>
+        <v>0.07603036854078911</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04771287349010135</v>
+        <v>0.03361822703523237</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3059657469.553456</v>
+        <v>2441949786.194756</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08295452260027529</v>
+        <v>0.09876785735447163</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04681208085370629</v>
+        <v>0.04152897764020796</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3445049100.512024</v>
+        <v>3531699564.757928</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1843396221149097</v>
+        <v>0.1445179020846747</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0234859761765195</v>
+        <v>0.02201361713506788</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>124</v>
+      </c>
+      <c r="J74" t="n">
+        <v>429</v>
+      </c>
+      <c r="K74" t="n">
+        <v>43.19329862286255</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1778689942.150841</v>
+        <v>2022829618.997015</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1482962397560579</v>
+        <v>0.139322363996112</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03099017630406515</v>
+        <v>0.02774559180794919</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4186309256.782826</v>
+        <v>4513782761.800173</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1105472510145251</v>
+        <v>0.0797087068192722</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02963402893540029</v>
+        <v>0.02933293381982744</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>204</v>
+      </c>
+      <c r="J76" t="n">
+        <v>429</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1476600455.167242</v>
+        <v>2210889980.123822</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1728643789521738</v>
+        <v>0.1809595935232267</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02211976079751215</v>
+        <v>0.02802456865947907</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4239274114.92165</v>
+        <v>3810392335.775003</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09246258674600472</v>
+        <v>0.09784955383368577</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04053677685497294</v>
+        <v>0.04040548784356249</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>215</v>
+      </c>
+      <c r="J78" t="n">
+        <v>428</v>
+      </c>
+      <c r="K78" t="n">
+        <v>37.70121071032531</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1212559838.674636</v>
+        <v>1350512780.853123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1540396479598454</v>
+        <v>0.1698074989318042</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03583829620347613</v>
+        <v>0.03522746811711832</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3789837669.218783</v>
+        <v>4222547348.238682</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09567003726330242</v>
+        <v>0.0916977736304211</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03419878184515328</v>
+        <v>0.03191440496645831</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>209</v>
+      </c>
+      <c r="J80" t="n">
+        <v>428</v>
+      </c>
+      <c r="K80" t="n">
+        <v>35.58493658194256</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3480916998.850368</v>
+        <v>3832026264.300874</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09544523057552221</v>
+        <v>0.104865986730014</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02427176708224888</v>
+        <v>0.02526639074327168</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>199</v>
+      </c>
+      <c r="J81" t="n">
+        <v>428</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.87088946788225</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3931830893.992589</v>
+        <v>5225357878.966739</v>
       </c>
       <c r="F82" t="n">
-        <v>0.158255888447488</v>
+        <v>0.2172173029323624</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02090754837470931</v>
+        <v>0.02396723469015173</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>290</v>
+      </c>
+      <c r="J82" t="n">
+        <v>428</v>
+      </c>
+      <c r="K82" t="n">
+        <v>38.81457570143626</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1662960860.674565</v>
+        <v>2128578636.74184</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1253104016718163</v>
+        <v>0.1379531358533687</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04525793641567676</v>
+        <v>0.0285720402557177</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2567929931.696444</v>
+        <v>1655485743.83962</v>
       </c>
       <c r="F84" t="n">
-        <v>0.104756404669989</v>
+        <v>0.07592400219230713</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04628911290950961</v>
+        <v>0.04522824132083625</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3414815658.537991</v>
+        <v>3556621390.313919</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1438358173630861</v>
+        <v>0.1577639746514065</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05602509638531948</v>
+        <v>0.04025771987781598</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>429</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2806980952.493433</v>
+        <v>2173023374.994186</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1249548948884328</v>
+        <v>0.14976664152816</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02132383751164537</v>
+        <v>0.0231772350581042</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1487022089.466401</v>
+        <v>1251637744.212133</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1216350455929791</v>
+        <v>0.1824164798254391</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02689156075609297</v>
+        <v>0.03779182530513317</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3549,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3188015666.897364</v>
+        <v>3666629075.866594</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1242795351855654</v>
+        <v>0.1698746348137865</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02650003672733618</v>
+        <v>0.02559256503749253</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>56</v>
+      </c>
+      <c r="J88" t="n">
+        <v>429</v>
+      </c>
+      <c r="K88" t="n">
+        <v>59.92020241673158</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3381040166.155425</v>
+        <v>2286119710.053608</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1037403692600791</v>
+        <v>0.1481761611684269</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03497691687756586</v>
+        <v>0.02804342375174372</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1753218952.941719</v>
+        <v>1446681793.595399</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1230876512014114</v>
+        <v>0.1340288526822687</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03801555793222713</v>
+        <v>0.04478635669690673</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1975332138.593573</v>
+        <v>1902101128.852863</v>
       </c>
       <c r="F91" t="n">
-        <v>0.150987100314414</v>
+        <v>0.1474547223174406</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05814928046401763</v>
+        <v>0.04365386946298776</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2472879380.317654</v>
+        <v>2767049003.269968</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1073364013649179</v>
+        <v>0.1058342829335115</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04703280616529643</v>
+        <v>0.04658615946527692</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4647658768.615495</v>
+        <v>3338377174.43232</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1396856062845073</v>
+        <v>0.1045592962092461</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05012063587610972</v>
+        <v>0.0420296969782982</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>206</v>
+      </c>
+      <c r="J93" t="n">
+        <v>427</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2329547464.839858</v>
+        <v>1846012517.967224</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1072755662650745</v>
+        <v>0.1167291195113053</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03719560089323082</v>
+        <v>0.04064945193023124</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2751055144.328393</v>
+        <v>3131698344.085554</v>
       </c>
       <c r="F95" t="n">
-        <v>0.104663463985504</v>
+        <v>0.1065449972783084</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0502685673246928</v>
+        <v>0.05140523345443758</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1458269965.198094</v>
+        <v>1942329121.806776</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291893506870206</v>
+        <v>0.1136895027575548</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03723451913140527</v>
+        <v>0.03228430032272728</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4986888734.215846</v>
+        <v>4238705117.231959</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132990471651018</v>
+        <v>0.1451472290381512</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02129900349033602</v>
+        <v>0.02719676308650357</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>224</v>
+      </c>
+      <c r="J97" t="n">
+        <v>429</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3133717698.841493</v>
+        <v>2736928224.483765</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1167266383360347</v>
+        <v>0.1088693312430771</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02734077021261922</v>
+        <v>0.02488528124860932</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2625494026.833296</v>
+        <v>2622282262.926108</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1110852668719192</v>
+        <v>0.08982391556114219</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03300595960396915</v>
+        <v>0.03073842756339943</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3151262536.530888</v>
+        <v>4102474712.645872</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1542544907065112</v>
+        <v>0.1639771400469289</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02267295975971855</v>
+        <v>0.01877476342606786</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>200</v>
+      </c>
+      <c r="J100" t="n">
+        <v>429</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3152118573.197351</v>
+        <v>2244622494.941591</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1995059830129581</v>
+        <v>0.1524595876608575</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0362319649572139</v>
+        <v>0.05476091730251915</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
